--- a/data/ApexHub_Deliveries.xlsx
+++ b/data/ApexHub_Deliveries.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier Alfaro\Dropbox\Master\Upwork\routing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046BD494-D7C2-4315-8F7C-D21B16208F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7640" windowHeight="1210" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Distribution Center Location " sheetId="2" r:id="rId1"/>
+    <sheet name="Distribution Center Location" sheetId="2" r:id="rId1"/>
     <sheet name="Delivery Addresses" sheetId="1" r:id="rId2"/>
     <sheet name="Servicable Zipcode" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -425,7 +426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -772,16 +773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,21 +808,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" customWidth="1"/>
-    <col min="3" max="3" width="110.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="110.21875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,22 +2226,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
